--- a/data/trans_bre/P18_4_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P18_4_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,6 +527,10 @@
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,15 +549,19 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -580,32 +588,52 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -622,6 +650,10 @@
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -641,47 +673,67 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,11</t>
+          <t>2,63</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-3,83</t>
+          <t>-6,26</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,54</t>
+          <t>2,33</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,24</t>
+          <t>-5,48</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>17,42%</t>
+          <t>-1,24</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>205,19%</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-25,15%</t>
+          <t>17,43%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>57,78%</t>
+          <t>175,82%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>-36,9%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>36,17%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-62,46%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-13,91%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>35,16%</t>
         </is>
       </c>
     </row>
@@ -694,52 +746,72 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,28; 14,85</t>
+          <t>-5,0; 14,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 7,39</t>
+          <t>-0,47; 7,13</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,62; 3,51</t>
+          <t>-14,34; 1,57</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 13,33</t>
+          <t>-4,66; 9,72</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,86; 9,01</t>
+          <t>-13,41; -0,13</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-19,28; 69,29</t>
+          <t>-8,94; 6,01</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>-4,73; 7,18</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-17,47; 68,23</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-59,48; 33,24</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-48,62; 427,37</t>
-        </is>
-      </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-7,11; 10,39</t>
+          <t>-64,17; 13,36</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-55,25; 277,15</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-92,95; 18,22</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-68,76; 128,95</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-63,16; 579,05</t>
         </is>
       </c>
     </row>
@@ -761,47 +833,67 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,36</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,01</t>
+          <t>2,86</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1,71</t>
+          <t>1,68</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,99%</t>
+          <t>-1,71</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>5,95%</t>
+          <t>-1,57</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>9,24%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>29,44%</t>
+          <t>-3,49%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>6,34%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>46,03%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>40,35%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-21,95%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-20,62%</t>
         </is>
       </c>
     </row>
@@ -814,52 +906,72 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-9,52; 9,96</t>
+          <t>-10,08; 10,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,07; 6,13</t>
+          <t>-9,96; 6,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-8,0; 8,53</t>
+          <t>-11,06; 8,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 7,2</t>
+          <t>-1,71; 8,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 8,27</t>
+          <t>-3,69; 6,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-29,51; 49,45</t>
+          <t>-9,55; 3,64</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-67,65; 125,15</t>
+          <t>-8,03; 3,89</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-41,05; 82,97</t>
+          <t>-30,92; 50,41</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-32,75; 176,27</t>
+          <t>-66,43; 112,79</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-4,27; 9,55</t>
+          <t>-49,51; 75,65</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-24,48; 198,3</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-56,22; 305,86</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-72,98; 98,14</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-67,8; 108,07</t>
         </is>
       </c>
     </row>
@@ -876,52 +988,72 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-6,39</t>
+          <t>-6,4</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,52</t>
+          <t>-2,13</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,91</t>
+          <t>2,51</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,04</t>
+          <t>1,94</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,58</t>
+          <t>-2,16</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-23,71%</t>
+          <t>2,58</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-16,36%</t>
+          <t>3,79</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>19,26%</t>
+          <t>-23,72%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>22,16%</t>
+          <t>-21,49%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>-2,76%</t>
+          <t>26,44%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>20,57%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-21,17%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>38,99%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>78,82%</t>
         </is>
       </c>
     </row>
@@ -934,52 +1066,72 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-13,36; 1,68</t>
+          <t>-13,91; 0,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,41; 3,56</t>
+          <t>-10,63; 3,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 6,89</t>
+          <t>-3,61; 7,5</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,86; 6,82</t>
+          <t>-6,36; 6,96</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,74; 2,05</t>
+          <t>-9,87; 3,08</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-42,75; 7,31</t>
+          <t>-2,14; 7,5</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-58,23; 63,07</t>
+          <t>-1,91; 8,35</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-40,35; 99,62</t>
+          <t>-43,79; 2,12</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-36,25; 106,28</t>
+          <t>-62,91; 60,38</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-8,08; 2,23</t>
+          <t>-29,43; 122,8</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-46,73; 107,23</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-63,31; 49,78</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-25,89; 176,15</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-34,74; 348,32</t>
         </is>
       </c>
     </row>
@@ -996,7 +1148,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -1006,42 +1158,62 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,83</t>
+          <t>5,99</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,12</t>
+          <t>3,09</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-5,03</t>
+          <t>4,85</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>5,03</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>47,95%</t>
+          <t>-2,06</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>51,34%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>36,33%</t>
+          <t>47,17%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>-5,62%</t>
+          <t>52,79%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>35,21%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>67,66%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>47,55%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-17,95%</t>
         </is>
       </c>
     </row>
@@ -1054,52 +1226,72 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-8,29; 8,16</t>
+          <t>-8,27; 8,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 8,06</t>
+          <t>-1,34; 8,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 11,3</t>
+          <t>-0,73; 11,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 7,23</t>
+          <t>-1,37; 7,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-11,79; 1,43</t>
+          <t>-0,03; 9,9</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-24,4; 33,88</t>
+          <t>-2,09; 11,6</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-12,73; 142,67</t>
+          <t>-7,9; 3,44</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-9,07; 135,93</t>
+          <t>-24,55; 33,39</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-13,91; 109,71</t>
+          <t>-14,81; 164,32</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-12,64; 1,6</t>
+          <t>-6,12; 143,2</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-13,04; 110,92</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-1,65; 212,37</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-15,86; 163,91</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-53,82; 49,15</t>
         </is>
       </c>
     </row>
@@ -1121,47 +1313,67 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,88</t>
+          <t>4,94</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>11,77</t>
+          <t>11,49</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>9,84</t>
+          <t>9,45</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-10,84</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>10,81%</t>
+          <t>10,84</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>66,14%</t>
+          <t>-1,85</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>96,91%</t>
+          <t>10,82%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>96,02%</t>
+          <t>67,13%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>-11,97%</t>
+          <t>93,02%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>88,87%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-8,19%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>114,3%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>-12,28%</t>
         </is>
       </c>
     </row>
@@ -1174,52 +1386,72 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,99; 11,76</t>
+          <t>-5,52; 12,58</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 10,45</t>
+          <t>-0,89; 11,14</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,65; 18,2</t>
+          <t>5,11; 17,37</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,83; 16,69</t>
+          <t>3,28; 15,79</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-17,43; -3,02</t>
+          <t>-6,56; 5,27</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-16,07; 47,02</t>
+          <t>3,95; 18,25</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-9,25; 205,56</t>
+          <t>-9,26; 4,85</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>30,9; 191,5</t>
+          <t>-15,18; 48,77</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>26,21; 210,13</t>
+          <t>-14,86; 218,42</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>-18,95; -3,66</t>
+          <t>31,05; 181,29</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>23,84; 197,32</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-55,69; 78,88</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>24,29; 303,4</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-48,12; 46,4</t>
         </is>
       </c>
     </row>
@@ -1236,52 +1468,72 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>7,3</t>
+          <t>7,29</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>4,75</t>
+          <t>8,3</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>10,03</t>
+          <t>10,4</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>8,42</t>
+          <t>9,24</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-8,75</t>
+          <t>6,02</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>18,19%</t>
+          <t>8,76</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>29,65%</t>
+          <t>4,82</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>65,88%</t>
+          <t>18,17%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>69,66%</t>
+          <t>56,03%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>-10,11%</t>
+          <t>69,45%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>77,49%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>106,92%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>65,42%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>42,35%</t>
         </is>
       </c>
     </row>
@@ -1294,52 +1546,72 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 16,81</t>
+          <t>-2,22; 16,66</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-6,12; 12,29</t>
+          <t>-1,6; 17,69</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,4; 18,21</t>
+          <t>1,33; 18,9</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 16,02</t>
+          <t>1,78; 17,34</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-19,54; 0,6</t>
+          <t>0,02; 13,89</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 48,49</t>
+          <t>-1,97; 19,01</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-29,14; 109,7</t>
+          <t>-3,94; 12,9</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>5,22; 181,34</t>
+          <t>-4,71; 47,42</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 187,78</t>
+          <t>-11,23; 177,06</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>-21,74; 0,67</t>
+          <t>3,87; 177,15</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>9,59; 206,42</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-12,92; 499,45</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-13,07; 203,06</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-27,69; 170,57</t>
         </is>
       </c>
     </row>
@@ -1361,47 +1633,67 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,89</t>
+          <t>3,24</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,63</t>
+          <t>4,35</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,93</t>
+          <t>4,97</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-4,76</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>6,4%</t>
+          <t>4,77</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>34,41%</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>35,91%</t>
+          <t>6,39%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>55,87%</t>
+          <t>38,4%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>-5,26%</t>
+          <t>33,1%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>56,01%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>14,57%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>50,91%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>14,71%</t>
         </is>
       </c>
     </row>
@@ -1414,66 +1706,93 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 5,78</t>
+          <t>-1,86; 5,51</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 5,48</t>
+          <t>0,74; 6,06</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,54; 7,37</t>
+          <t>1,21; 7,22</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,47; 7,6</t>
+          <t>2,43; 7,56</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,56; -1,58</t>
+          <t>-1,54; 3,71</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 21,09</t>
+          <t>1,17; 7,81</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 82,88</t>
+          <t>-1,56; 3,93</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>9,25; 64,72</t>
+          <t>-5,83; 19,86</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>24,12; 97,7</t>
+          <t>5,93; 86,98</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-8,27; -1,85</t>
+          <t>7,53; 64,0</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>22,97; 98,62</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-18,01; 58,5</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>10,77; 94,44</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-15,13; 51,76</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:I1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
